--- a/Test Import Presta M20S.xlsx
+++ b/Test Import Presta M20S.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">Titre</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">truc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
   </si>
 </sst>
 </file>
@@ -288,8 +291,8 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="n">
@@ -495,8 +498,8 @@
       <c r="AC2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="1" t="n">
-        <v>1</v>
+      <c r="AD2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="AE2" s="1" t="n">
         <v>1</v>

--- a/Test Import Presta M20S.xlsx
+++ b/Test Import Presta M20S.xlsx
@@ -20,24 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Titre</t>
   </si>
   <si>
-    <t xml:space="preserve">Récapitulatif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Caractéristique N°ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carateristique value id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marque N°ID ?</t>
+    <t xml:space="preserve">Caractèristique ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caractéristique valeur ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marque N¡ID ?</t>
   </si>
   <si>
     <t xml:space="preserve">Référence</t>
@@ -46,16 +43,16 @@
     <t xml:space="preserve">Quantité</t>
   </si>
   <si>
-    <t xml:space="preserve">Prix HT</t>
+    <t xml:space="preserve"> Prix HT </t>
   </si>
   <si>
     <t xml:space="preserve">Prix TTC</t>
   </si>
   <si>
-    <t xml:space="preserve">Régle de TVA N°ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cétégorie N°ID</t>
+    <t xml:space="preserve">Régle de TVA N¡ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cétégorie N¡ID</t>
   </si>
   <si>
     <t xml:space="preserve">Quantité minimale pour la vente</t>
@@ -82,16 +79,16 @@
     <t xml:space="preserve">Prix d'achat HT</t>
   </si>
   <si>
-    <t xml:space="preserve">Balise titre (nom fifférent du produit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Métat description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mots-clés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etat (neuf1 utilisé2 reconditionné3) N°ID</t>
+    <t xml:space="preserve">Balise titre (nom différent du produit)120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Métat description120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etat (neuf(new) utilis(used) reconditionn(refurbished) N¡ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afficher en ligne 1-0</t>
   </si>
   <si>
     <t xml:space="preserve">Afficher l'état sur la fiche produit (1-0)</t>
@@ -100,10 +97,7 @@
     <t xml:space="preserve">Code-barres EAN-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Cache plastique carénage sous porte bagages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMW F 650 Funduro 1993-1999</t>
+    <t xml:space="preserve">Carénage sous porte bagages</t>
   </si>
   <si>
     <t xml:space="preserve">Cache plastique carénage sous porte bagages jonction carènage arrière</t>
@@ -112,39 +106,27 @@
     <t xml:space="preserve">B.F650.00015</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">Spirit à bulle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">truc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
+    <t xml:space="preserve">BMW F 650 Funduro 1993-1999 Carénage sous porte bagages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* \-??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* \-??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -168,25 +150,36 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,59 +210,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -281,6 +300,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFF79646"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -289,10 +368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,17 +410,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -350,164 +429,126 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AC1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="n">
+        <v>8.33333</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>1772</v>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="14" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="U2" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ2" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <f aca="false">TRUNC( J2/1.2 , 2)</f>
-        <v>8.33</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="1" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="U2" s="10" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>4595279954834</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Test Import Presta M20S.xlsx
+++ b/Test Import Presta M20S.xlsx
@@ -370,8 +370,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,7 +384,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.49"/>
@@ -410,7 +410,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="9" t="n">
-        <v>1772</v>
+        <v>557</v>
       </c>
       <c r="M2" s="10" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0.36</v>
       </c>
       <c r="U2" s="10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V2" s="15"/>
       <c r="X2" s="16"/>
